--- a/amzprep/Int QA Prep.xlsx
+++ b/amzprep/Int QA Prep.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Add two numbers represented as linked lists</t>
   </si>
@@ -72,18 +72,6 @@
 -- Java has JNDI (Naming and Directory Index) where each named index has configuration tied to it; so client uses JNDI to connect to DB, JMS etc</t>
   </si>
   <si>
-    <t>How Spring DataSource manages many connections used by application?</t>
-  </si>
-  <si>
-    <t>What features are NOT in NoSql from Sql?</t>
-  </si>
-  <si>
-    <t>How a huge xml file (which is not storable in server memory ) can be parsed or converted?</t>
-  </si>
-  <si>
-    <t>What DS is used in HashMap and Set?</t>
-  </si>
-  <si>
     <t>Jav</t>
   </si>
   <si>
@@ -94,13 +82,35 @@
   </si>
   <si>
     <t>Jms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java8                             Thread            DesignPattern                    Architecutre
+Kafka, Storm                  JMS                 Spring
+SQL                                NoSql                       
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Spring DataSource manages many connections used by application?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What features are NOT in NoSql from Sql?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How a huge xml file (which is not storable in server memory ) can be parsed or converted?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What DS is used in HashMap and Set?
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +118,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,15 +158,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -146,6 +181,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -508,81 +548,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="58.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="2">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>